--- a/data/trans_bre/P43_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P43_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,84</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,38</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,47%</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>57,59%</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>30,13%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>61,53%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8,46%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,59%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-6,37%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 10,99</t>
+          <t>-2,12; 3,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 12,47</t>
+          <t>-0,77; 4,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,65; 14,11</t>
+          <t>0,88; 5,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 8,49</t>
+          <t>-2,35; 4,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 105,89</t>
+          <t>-2,85; 2,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,68; 128,99</t>
+          <t>-3,47; 1,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,57; 183,89</t>
+          <t>-24,91; 65,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 70,19</t>
+          <t>-8,9; 82,52</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>12,6; 136,15</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-23,61; 62,41</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-30,82; 39,94</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-35,35; 30,6</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,14%</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>-7,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>-10,54%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-21,85%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>18,55%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-15,94%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-11,13%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 11,87</t>
+          <t>-4,21; 2,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 9,16</t>
+          <t>-3,97; 2,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 7,81</t>
+          <t>-7,12; 1,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 11,16</t>
+          <t>-3,49; 5,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 116,37</t>
+          <t>-6,48; 3,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 88,83</t>
+          <t>-6,48; 3,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,13; 71,67</t>
+          <t>-43,47; 53,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,33; 77,16</t>
+          <t>-40,67; 38,76</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-54,37; 19,99</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-33,1; 82,99</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-51,15; 51,29</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-47,87; 52,1</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-9,24</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>29,66%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>-5,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-29,98%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-12,88%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-49,69%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 19,65</t>
+          <t>-6,16; 5,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 16,81</t>
+          <t>-9,36; 3,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 15,65</t>
+          <t>-6,27; 5,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-29,63; 0,63</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-48,87; 243,86</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-47,09; 134,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,41; 184,04</t>
+          <t>-61,91; 173,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-65,88; 58,31</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-62,37; 109,84</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-85,44; 12,29</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>38,17%</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>46,95%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>4,24%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10,66%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-1,75%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-7,58%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-8,23%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 9,88</t>
+          <t>-2,03; 2,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 8,74</t>
+          <t>-1,69; 2,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 9,35</t>
+          <t>-1,38; 2,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 7,22</t>
+          <t>-3,05; 2,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,75; 82,19</t>
+          <t>-3,01; 1,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,04; 76,86</t>
+          <t>-3,51; 1,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,87; 92,91</t>
+          <t>-24,5; 38,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 56,1</t>
+          <t>-19,02; 32,4</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-16,5; 47,6</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-26,33; 32,98</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-32,01; 24,68</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-32,07; 24,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P43_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P43_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,99</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,28</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>8,92%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>30,13%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>61,53%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>8,46%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-3,59%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-6,37%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.410988133588472</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.342415041487925</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>9.672405273080182</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.439616819882261</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>3.323235408682368</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>2.013225507675362</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.4687897846209027</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.6255710556401333</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.014157669321162</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.3200516613675544</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.2302045011425531</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.1291903561187621</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,12; 3,75</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 4,27</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 5,71</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,35; 4,08</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-2,85; 2,47</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-3,47; 1,98</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-24,91; 65,83</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-8,9; 82,52</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>12,6; 136,15</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-23,61; 62,41</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-30,82; 39,94</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-35,35; 30,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.08586276789072873</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.685524671523399</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>4.986322369810484</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.8099299755674395</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-2.017808234499292</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-3.417599162942406</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.008823277078097934</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1950452273779522</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.3887438198123215</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.05470283937913237</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.120563383676739</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.1817554097578756</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.17212754391051</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.71094747095079</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>14.05306733445186</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.780081006788134</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>9.170179470937965</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>6.965885442757909</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.191862869426032</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.353433936541486</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.847262017591053</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.880731712077325</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.8093985758895744</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.5455994356355554</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,53</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,81</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,92</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,65</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-1,64</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-1,22</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-7,2%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-10,54%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-21,85%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>18,55%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-15,94%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-11,13%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,21; 2,93</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; 2,17</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,12; 1,21</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,49; 5,63</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-6,48; 3,87</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-6,48; 3,97</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-43,47; 53,33</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-40,67; 38,76</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-54,37; 19,99</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-33,1; 82,99</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-51,15; 51,29</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-47,87; 52,1</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.107154242432228</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.328319892677639</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.009318374764867</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.659531324584529</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.694516900358225</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>6.256012426925889</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.473968579851931</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2530717076060533</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.06744781343461895</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.3830998015799052</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.09418512434733815</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.3519623115182148</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,98</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,99</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-9,24</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-5,43%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-29,98%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-12,88%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-49,69%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.071726167535487</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.702130513962819</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.521792230784107</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.447319677209683</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-7.794223664553396</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-4.891908860700247</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.09084391948941961</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1894590231816336</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3449860175477563</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1379994914513114</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.3562197392549633</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.2192636592408132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,16; 5,56</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,36; 3,43</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,27; 5,39</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-29,63; 0,63</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-61,91; 173,11</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-65,88; 58,31</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-62,37; 109,84</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-85,44; 12,29</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.63106059323912</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.043530317183</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.687681511244846</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>13.02796442657176</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>12.21221727793082</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>16.63378668371223</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.423765022810019</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.8309292211957219</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.5910437701178329</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.092895734340868</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.8945076414227162</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1.238128486302662</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,73</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,93%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4,24%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>10,66%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-1,75%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-7,58%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-8,23%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>6.591235091439717</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.7356550866478934</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.111403379291718</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-8.269647477225464</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.4511827788037751</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.0386173540075424</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1528093676960448</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.2900491345970169</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,03; 2,3</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,69; 2,05</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,38; 2,83</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,05; 2,63</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-3,01; 1,67</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 1,76</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-24,5; 38,26</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-19,02; 32,4</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-16,5; 47,6</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-26,33; 32,98</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-32,01; 24,68</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-32,07; 24,39</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.406257481734707</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.08104421174374</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.296371762462545</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-33.53594481293808</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.4794667505749122</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4723177002392355</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.5084101640070745</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.7373763171321345</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>21.09279197763792</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.92898427098511</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.93256317594576</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.934786290694964</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>2.551689218597545</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.189471634545363</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.450742877814542</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.4782521483905126</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>6.364345256205225</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>5.028821942218653</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.362108534511998</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.222704035584425</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>2.856728240638723</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>2.773729063135424</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.4741763870086506</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3827003171314033</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.4361797013009308</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.1996634561533993</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.1863069908362129</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.1714971580221523</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.624862873884717</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.196245054311573</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.168993481795646</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.802622199778654</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-1.897886343591688</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-2.124194556102845</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.07904035004798871</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.07979309818926157</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.07161668800052463</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1394952862758223</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.1084150857537931</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.1254766450428782</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>11.13771414027394</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.511582307721021</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.103803815661252</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.475258989901238</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>7.264170606131602</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>7.389013181210472</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.9460840335083712</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7479972449023312</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.8657150921846583</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.5557450492180632</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.5304151764089299</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.5269563882870464</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
